--- a/results/advinstruction.xlsx
+++ b/results/advinstruction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20360" windowHeight="18620"/>
+    <workbookView windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,87 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>word change</t>
-  </si>
-  <si>
-    <t>letter change</t>
-  </si>
-  <si>
-    <t>one url</t>
-  </si>
-  <si>
-    <t>detail url</t>
-  </si>
-  <si>
-    <t>grammatical error</t>
-  </si>
-  <si>
-    <t>three typos</t>
-  </si>
-  <si>
-    <t>four typos</t>
-  </si>
-  <si>
-    <t>five typos</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>latex markdown</t>
-  </si>
-  <si>
-    <t>html</t>
   </si>
   <si>
     <t>Average</t>
   </si>
   <si>
-    <t>gpt-4</t>
+    <t>GPT-4</t>
   </si>
   <si>
-    <t>chatglm2</t>
+    <t>ChatGLM2</t>
   </si>
   <si>
-    <t>vicuna-7b</t>
+    <t>Vicuna-7b</t>
   </si>
   <si>
-    <t>koala-13b</t>
+    <t>Koala-13b</t>
   </si>
   <si>
-    <t>wizardlm-13b</t>
+    <t>Wizardlm-13b</t>
   </si>
   <si>
-    <t>llama2-70b</t>
+    <t>Llama2-70b</t>
   </si>
   <si>
-    <t>oasst-12b</t>
+    <t>Oasst-12b</t>
   </si>
   <si>
-    <t>llama2-7b</t>
+    <t>Llama2-7b</t>
   </si>
   <si>
-    <t>vicuna-33b</t>
+    <t>Vicuna-33b</t>
   </si>
   <si>
-    <t>chatgpt</t>
+    <t>ChatGPT</t>
   </si>
   <si>
-    <t>vicuna-13b</t>
+    <t>Vicuna-13b</t>
   </si>
   <si>
-    <t>baichuan-13b</t>
+    <t>Baichuan-13b</t>
   </si>
   <si>
     <t>ERNIE</t>
   </si>
   <si>
-    <t>llama2-13b</t>
+    <t>Llama2-13b</t>
+  </si>
+  <si>
+    <t>Mistral-7b</t>
+  </si>
+  <si>
+    <t>PaLM 2</t>
   </si>
 </sst>
 </file>
@@ -102,13 +75,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -138,6 +119,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -146,18 +158,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,6 +182,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -177,29 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,46 +235,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,180 +262,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -463,11 +444,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +514,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,56 +550,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -565,155 +561,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1033,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1045,46 +1045,46 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1">
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0.952809059</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.932926879</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.879947586</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.927268734</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.939298054</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.959353726</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.932423787</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.951307578</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.947526867</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.958543732</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.943947678</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.937614424</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0.906023975</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0.9526146</v>
@@ -1654,6 +1654,88 @@
       </c>
       <c r="M15">
         <v>0.964846669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.947821441103163</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.95201008174578</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.954972799053507</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.954832262696405</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.962900653143479</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.961360748260602</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.956886098742721</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.957292639189428</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.957306713374056</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.963569890458097</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.964325345379797</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.957570788467912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.930092358914527</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.952007629943359</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.957469639018901</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.954609488373107</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.957906987771927</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.957510555747008</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.957083054421924</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.959058394512444</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.960661057661317</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.952747716363751</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.955544204555098</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.954062826116669</v>
       </c>
     </row>
   </sheetData>
